--- a/Hardware/PCB/WeatherStation/WeatherStation.xlsx
+++ b/Hardware/PCB/WeatherStation/WeatherStation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleko\OneDrive\Documents\GitHub\WeatherStation\Hardware\PCB\WeatherStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6997C5D-E84C-4547-993C-BB5FE1D868BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374DEBC5-FA53-4993-A77F-8796DFEDC7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD3F0168-93FF-4A8F-BC22-DAC9365EC73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{346B73D0-4A84-472B-A333-8526E2809317}"/>
   </bookViews>
   <sheets>
     <sheet name="WeatherStation" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="89">
   <si>
     <t>Comment</t>
   </si>
@@ -57,163 +57,169 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Button_SMD_1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>BT0, RST</t>
+  </si>
+  <si>
+    <t>10uf</t>
+  </si>
+  <si>
+    <t>C1, C10, C17</t>
+  </si>
+  <si>
+    <t>0805_CAP</t>
+  </si>
+  <si>
+    <t>0805_CAPACITOR</t>
+  </si>
+  <si>
+    <t>100nf</t>
+  </si>
+  <si>
+    <t>C2, C3, C4, C5, C6, C11, C12, C13, C14, C23, C25, C26, C28</t>
+  </si>
+  <si>
+    <t>0603 CAP</t>
+  </si>
+  <si>
+    <t>15pf</t>
+  </si>
+  <si>
+    <t>C7, C8</t>
+  </si>
+  <si>
+    <t>10nf</t>
+  </si>
+  <si>
+    <t>C9, C16, C22</t>
+  </si>
+  <si>
+    <t>22nf</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>6.8nf</t>
+  </si>
+  <si>
+    <t>C18, C19</t>
+  </si>
+  <si>
+    <t>22uf</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>4u7f</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>22pf</t>
+  </si>
+  <si>
+    <t>C24, C27</t>
+  </si>
+  <si>
+    <t>DHT11</t>
+  </si>
+  <si>
+    <t>USBLC6-2SC6</t>
+  </si>
+  <si>
+    <t>17V Clamp 5A (8/20Âµs) Ipp Tvs Diode Surface Mount SOT-23-6</t>
+  </si>
+  <si>
+    <t>ESD1</t>
+  </si>
+  <si>
+    <t>SOT95P280X145-6N</t>
+  </si>
+  <si>
+    <t>HR911105A</t>
+  </si>
+  <si>
+    <t>DIP RJ45 Connector;</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>HANRUN_HR911105A</t>
+  </si>
+  <si>
+    <t>W5500</t>
+  </si>
+  <si>
+    <t>ETHERNET</t>
+  </si>
+  <si>
+    <t>PAD</t>
+  </si>
+  <si>
+    <t>GND, SWC, SWD</t>
+  </si>
+  <si>
+    <t>CSP-USC16-TR</t>
+  </si>
+  <si>
+    <t>CSP-USC16-TR Valcon USB Type C Surface Mount PCB Socket</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>VALCON_CSP-USC16-TR</t>
+  </si>
+  <si>
+    <t>LQM18DN100M70L</t>
+  </si>
+  <si>
+    <t>Inductor with Inductance 10uH Tol.+/-20% Package 0603 (1608)</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>INDC1608X95N</t>
+  </si>
+  <si>
+    <t>STM32F103C8T6</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
     <t>9V_jack</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>9V</t>
+    <t>POWER</t>
   </si>
   <si>
     <t>9V_JACK</t>
   </si>
   <si>
-    <t>Button_SMD_1</t>
-  </si>
-  <si>
-    <t>BT0, RST</t>
-  </si>
-  <si>
-    <t>2.2uF TAN CAP</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>470pf</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>0603 CAP</t>
-  </si>
-  <si>
-    <t>100nf</t>
-  </si>
-  <si>
-    <t>15pf</t>
-  </si>
-  <si>
-    <t>C7, C8</t>
-  </si>
-  <si>
-    <t>10nf</t>
-  </si>
-  <si>
-    <t>C9, C16, C18, C19, C22</t>
-  </si>
-  <si>
-    <t>10uf</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>TANTAL_CAP</t>
-  </si>
-  <si>
-    <t>tan_cap</t>
-  </si>
-  <si>
-    <t>22nf</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>4u7f</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>22pf</t>
-  </si>
-  <si>
-    <t>C24, C27</t>
-  </si>
-  <si>
-    <t>USBLC6-2SC6</t>
-  </si>
-  <si>
-    <t>17V Clamp 5A (8/20Âµs) Ipp Tvs Diode Surface Mount SOT-23-6</t>
-  </si>
-  <si>
-    <t>ESD1</t>
-  </si>
-  <si>
-    <t>SOT95P280X145-6N</t>
-  </si>
-  <si>
-    <t>HR911105A</t>
-  </si>
-  <si>
-    <t>DIP RJ45 Connector;</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>HANRUN_HR911105A</t>
-  </si>
-  <si>
-    <t>PAD</t>
-  </si>
-  <si>
-    <t>GND, SWC, SWD</t>
-  </si>
-  <si>
-    <t>USBLC6-4SC6</t>
-  </si>
-  <si>
-    <t>17V Clamp 5A (8/20µs) Ipp Tvs Diode Surface Mount SOT-23-6</t>
-  </si>
-  <si>
-    <t>J1, J2</t>
-  </si>
-  <si>
-    <t>SOT23-6L</t>
-  </si>
-  <si>
-    <t>CSP-USC16-TR</t>
-  </si>
-  <si>
-    <t>CSP-USC16-TR Valcon USB Type C Surface Mount PCB Socket</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>VALCON_CSP-USC16-TR</t>
-  </si>
-  <si>
-    <t>LQM18DN100M70L</t>
-  </si>
-  <si>
-    <t>Inductor with Inductance 10uH Tol.+/-20% Package 0603 (1608)</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>INDC1608X95N</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R25, R29, R30, R31</t>
+    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R25, R29, R30, R31</t>
   </si>
   <si>
     <t>0603 RES</t>
   </si>
   <si>
-    <t>22R</t>
-  </si>
-  <si>
-    <t>R11, R12, R13, R15</t>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>R10, R11, R12, R13, R15, R24</t>
   </si>
   <si>
     <t>1M</t>
@@ -222,16 +228,22 @@
     <t>R14</t>
   </si>
   <si>
+    <t>49R9</t>
+  </si>
+  <si>
+    <t>R16, R17, R20</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
     <t>47R</t>
   </si>
   <si>
-    <t>R16, R17, R19, R20</t>
-  </si>
-  <si>
-    <t>10R</t>
-  </si>
-  <si>
-    <t>R18</t>
+    <t>R19</t>
   </si>
   <si>
     <t>330R</t>
@@ -240,7 +252,7 @@
     <t>R21, R22</t>
   </si>
   <si>
-    <t>12k</t>
+    <t>12.4k</t>
   </si>
   <si>
     <t>R23</t>
@@ -258,22 +270,13 @@
     <t>R27, R28</t>
   </si>
   <si>
-    <t>3.3v reg</t>
+    <t>5v_regulator</t>
   </si>
   <si>
     <t>REG</t>
   </si>
   <si>
-    <t>DHT11</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>STM32F103C8T6</t>
-  </si>
-  <si>
-    <t>STM</t>
+    <t>sot_225</t>
   </si>
   <si>
     <t>CP2102</t>
@@ -288,25 +291,16 @@
     <t>QFN50P500X500X100-29N</t>
   </si>
   <si>
-    <t>W5500</t>
-  </si>
-  <si>
     <t>7M25090002</t>
   </si>
   <si>
-    <t>25 MHz Â±10ppm Crystal 18pF 4-SMD, No Lead</t>
+    <t>25 MHz Â±10ppm Crystal 18pF 4-SMD, No Lead, 8 MHz Â±10ppm Crystal 18pF 4-SMD, No Lead</t>
   </si>
   <si>
     <t>Y1, Y2</t>
   </si>
   <si>
     <t>XTAL_7M25090002</t>
-  </si>
-  <si>
-    <t>C3, C4, C5, C6, C11, C12, C13, C14, C17, C20, C23, C25, C26,28</t>
-  </si>
-  <si>
-    <t>8 MHz Â±10ppm Crystal 18pF 4-SMD, No Lead</t>
   </si>
   <si>
     <t>Available</t>
@@ -417,10 +411,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -737,14 +731,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2DA43B-32C9-49E6-84BF-3846C2DF763B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7C5DE0-3733-4B31-8CE6-5A305940C786}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,8 +765,8 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>90</v>
+      <c r="G1" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -786,178 +780,172 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="4">
-        <v>5</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -975,304 +963,292 @@
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="4">
         <v>3</v>
       </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F19" s="4">
-        <v>14</v>
-      </c>
-      <c r="G19" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="4">
-        <v>4</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F21" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F22" s="4">
-        <v>4</v>
-      </c>
-      <c r="G22" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F24" s="4">
-        <v>2</v>
-      </c>
-      <c r="G24" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -1281,82 +1257,76 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
       </c>
-      <c r="G27" s="6"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B28" s="4"/>
       <c r="C28" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B29" s="4"/>
       <c r="C29" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -1365,68 +1335,66 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>84</v>
       </c>
@@ -1443,34 +1411,13 @@
         <v>84</v>
       </c>
       <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="G34" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="G33" s="6"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup scale="60" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup scale="63" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hardware/PCB/WeatherStation/WeatherStation.xlsx
+++ b/Hardware/PCB/WeatherStation/WeatherStation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleko\OneDrive\Documents\GitHub\WeatherStation\Hardware\PCB\WeatherStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374DEBC5-FA53-4993-A77F-8796DFEDC7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59600980-AC7E-459E-BF01-B498416579D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{346B73D0-4A84-472B-A333-8526E2809317}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{346B73D0-4A84-472B-A333-8526E2809317}"/>
   </bookViews>
   <sheets>
     <sheet name="WeatherStation" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
   <si>
     <t>Comment</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>Available</t>
+  </si>
+  <si>
+    <t>Ordered</t>
   </si>
 </sst>
 </file>
@@ -735,10 +738,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +749,7 @@
     <col min="1" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -768,8 +771,11 @@
       <c r="G1" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -789,8 +795,9 @@
         <v>2</v>
       </c>
       <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -810,8 +817,9 @@
         <v>3</v>
       </c>
       <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -831,8 +839,9 @@
         <v>13</v>
       </c>
       <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -852,8 +861,9 @@
         <v>2</v>
       </c>
       <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -873,8 +883,9 @@
         <v>3</v>
       </c>
       <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -892,8 +903,9 @@
         <v>1</v>
       </c>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -913,8 +925,9 @@
         <v>2</v>
       </c>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -932,8 +945,9 @@
         <v>1</v>
       </c>
       <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -951,8 +965,9 @@
         <v>1</v>
       </c>
       <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -972,8 +987,9 @@
         <v>2</v>
       </c>
       <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -991,8 +1007,9 @@
         <v>1</v>
       </c>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1012,8 +1029,9 @@
         <v>1</v>
       </c>
       <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1033,8 +1051,9 @@
         <v>1</v>
       </c>
       <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1052,8 +1071,9 @@
         <v>1</v>
       </c>
       <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -1073,8 +1093,9 @@
         <v>3</v>
       </c>
       <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
@@ -1094,8 +1115,9 @@
         <v>1</v>
       </c>
       <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
@@ -1115,8 +1137,9 @@
         <v>1</v>
       </c>
       <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -1134,8 +1157,9 @@
         <v>1</v>
       </c>
       <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>53</v>
       </c>
@@ -1153,8 +1177,9 @@
         <v>1</v>
       </c>
       <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
@@ -1174,8 +1199,9 @@
         <v>13</v>
       </c>
       <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -1195,8 +1221,9 @@
         <v>6</v>
       </c>
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
@@ -1214,8 +1241,9 @@
         <v>1</v>
       </c>
       <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
@@ -1235,8 +1263,9 @@
         <v>3</v>
       </c>
       <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
@@ -1254,8 +1283,9 @@
         <v>1</v>
       </c>
       <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
@@ -1273,8 +1303,9 @@
         <v>1</v>
       </c>
       <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
@@ -1294,8 +1325,9 @@
         <v>2</v>
       </c>
       <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>71</v>
       </c>
@@ -1313,8 +1345,9 @@
         <v>1</v>
       </c>
       <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
@@ -1332,8 +1365,9 @@
         <v>1</v>
       </c>
       <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>75</v>
       </c>
@@ -1353,8 +1387,9 @@
         <v>2</v>
       </c>
       <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -1372,8 +1407,9 @@
         <v>1</v>
       </c>
       <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>80</v>
       </c>
@@ -1393,8 +1429,9 @@
         <v>1</v>
       </c>
       <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>84</v>
       </c>
@@ -1414,6 +1451,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Hardware/PCB/WeatherStation/WeatherStation.xlsx
+++ b/Hardware/PCB/WeatherStation/WeatherStation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleko\OneDrive\Documents\GitHub\WeatherStation\Hardware\PCB\WeatherStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59600980-AC7E-459E-BF01-B498416579D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6661946-B0B5-480E-A813-6DE32707D964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{346B73D0-4A84-472B-A333-8526E2809317}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>Comment</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>Ordered</t>
+  </si>
+  <si>
+    <t>8 MHz Â±10ppm Crystal 18pF 4-SMD, No Lead, 8 MHz Â±10ppm Crystal 18pF 4-SMD, No Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -738,10 +744,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -903,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -925,7 +931,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1007,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1115,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1137,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1157,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1221,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1241,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1263,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1325,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1345,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1387,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -1407,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -1429,7 +1435,9 @@
         <v>1</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -1452,6 +1460,28 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="6"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Hardware/PCB/WeatherStation/WeatherStation.xlsx
+++ b/Hardware/PCB/WeatherStation/WeatherStation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleko\OneDrive\Documents\GitHub\WeatherStation\Hardware\PCB\WeatherStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6661946-B0B5-480E-A813-6DE32707D964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDF7519-7948-4EEE-8F06-619D2E0FC15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{346B73D0-4A84-472B-A333-8526E2809317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{346B73D0-4A84-472B-A333-8526E2809317}"/>
   </bookViews>
   <sheets>
     <sheet name="WeatherStation" sheetId="1" r:id="rId1"/>
@@ -747,7 +747,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +822,7 @@
       <c r="F3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -908,7 +908,7 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -930,7 +930,7 @@
       <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1162,7 +1162,7 @@
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
       <c r="F22" s="4">
         <v>6</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
       <c r="F23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1268,7 +1268,7 @@
       <c r="F24" s="4">
         <v>3</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1330,7 +1330,7 @@
       <c r="F27" s="4">
         <v>2</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
       <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
       <c r="F30" s="4">
         <v>2</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="6" t="s">
         <v>91</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="F34" s="4">
         <v>2</v>
       </c>
-      <c r="G34" s="8"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
   </sheetData>
